--- a/performance3.xlsx
+++ b/performance3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\3244\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC65F0E-220D-48A3-AAC8-207B65600F9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805B1CA0-BE83-417E-8D31-83C4566E5A46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10512" yWindow="2748" windowWidth="26088" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="19">
   <si>
     <t>Features</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>11 player rating time adj</t>
+  </si>
+  <si>
+    <t>auc-roc-ovo-weighted</t>
   </si>
 </sst>
 </file>
@@ -148,13 +151,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -448,16 +454,18 @@
     <col min="3" max="3" width="18.6640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="13" style="3" customWidth="1"/>
     <col min="5" max="5" width="10.21875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="27.109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="8.77734375" style="3"/>
+    <col min="6" max="6" width="11.5546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="26.5546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="21.109375" style="3" customWidth="1"/>
+    <col min="12" max="13" width="8.77734375" style="3"/>
+    <col min="14" max="14" width="7.77734375" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="8.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -473,26 +481,35 @@
       <c r="E1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N1" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -508,26 +525,35 @@
       <c r="E2" s="4">
         <v>0.70540000000000003</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="4">
+      <c r="F2" s="7">
+        <v>0.73070000000000002</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="4">
         <v>0.69710000000000005</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>0.7117</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="4">
+      <c r="J2" s="5">
+        <v>0.75790000000000002</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="4">
         <v>0.5302</v>
       </c>
-      <c r="K2" s="4">
+      <c r="M2" s="4">
         <v>0.62250000000000005</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N2" s="5">
+        <v>0.56289999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -543,26 +569,35 @@
       <c r="E3" s="4">
         <v>0.67210000000000003</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="F3" s="7">
+        <v>0.70350000000000001</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="4">
         <v>0.67559999999999998</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>0.6794</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="4">
+      <c r="J3" s="5">
+        <v>0.70209999999999995</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="4">
         <v>0.57289999999999996</v>
       </c>
-      <c r="K3" s="4">
+      <c r="M3" s="4">
         <v>0.58789999999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N3" s="5">
+        <v>0.56479999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -578,26 +613,35 @@
       <c r="E4" s="4">
         <v>0.70350000000000001</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="4">
+      <c r="F4" s="7">
+        <v>0.76980000000000004</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="4">
         <v>0.70140000000000002</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I4" s="4">
         <v>0.69940000000000002</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="4">
+      <c r="J4" s="5">
+        <v>0.76340000000000008</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="4">
         <v>0.68</v>
       </c>
-      <c r="K4" s="4">
+      <c r="M4" s="4">
         <v>0.67710000000000004</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N4" s="5">
+        <v>0.73870000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -613,26 +657,35 @@
       <c r="E5" s="4">
         <v>0.62560000000000004</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="4">
+      <c r="F5" s="7">
+        <v>0.61419999999999997</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="4">
         <v>0.62919999999999998</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <v>0.62749999999999995</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="4">
+      <c r="J5" s="5">
+        <v>0.59689999999999999</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="4">
         <v>0.58560000000000001</v>
       </c>
-      <c r="K5" s="4">
+      <c r="M5" s="4">
         <v>0.5847</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N5" s="5">
+        <v>0.57369999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -648,26 +701,35 @@
       <c r="E6" s="4">
         <v>0.70350000000000001</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="F6" s="7">
+        <v>0.75390000000000001</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="4">
         <v>0.69820000000000004</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <v>0.70669999999999999</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="4">
+      <c r="J6" s="5">
+        <v>0.75029999999999997</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="4">
         <v>0.68889999999999996</v>
       </c>
-      <c r="K6" s="4">
+      <c r="M6" s="4">
         <v>0.69810000000000005</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N6" s="5">
+        <v>0.747</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -683,26 +745,35 @@
       <c r="E7" s="4">
         <v>0.71260000000000001</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="F7" s="7">
+        <v>0.76559999999999995</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="4">
         <v>0.70279999999999998</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="4">
         <v>0.71040000000000003</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="4">
+      <c r="J7" s="5">
+        <v>0.76260000000000006</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="4">
         <v>0.69110000000000005</v>
       </c>
-      <c r="K7" s="4">
+      <c r="M7" s="4">
         <v>0.69899999999999995</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N7" s="5">
+        <v>0.74390000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -718,26 +789,26 @@
       <c r="E8" s="4">
         <v>0.59160000000000001</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="4">
+      <c r="G8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="4">
         <v>0.5232</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>0.59430000000000005</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="4">
+      <c r="K8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="4">
         <v>0.4592</v>
       </c>
-      <c r="K8" s="4">
+      <c r="M8" s="4">
         <v>0.5141</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -753,26 +824,35 @@
       <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N10" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,26 +868,35 @@
       <c r="E11" s="4">
         <v>0.51790000000000003</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="4">
+      <c r="F11" s="7">
+        <v>0.62250000000000005</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="4">
         <v>0.43990000000000001</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="4">
         <v>0.52559999999999996</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="4">
+      <c r="J11" s="5">
+        <v>0.64239999999999997</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="4">
         <v>0.32819999999999999</v>
       </c>
-      <c r="K11" s="4">
+      <c r="M11" s="4">
         <v>0.45850000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N11" s="5">
+        <v>0.52329999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -823,26 +912,35 @@
       <c r="E12" s="4">
         <v>0.44330000000000003</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="4">
+      <c r="F12" s="7">
+        <v>0.59550000000000003</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="4">
         <v>0.45090000000000002</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>0.4521</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="4">
+      <c r="J12" s="5">
+        <v>0.59840000000000004</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="4">
         <v>0.38159999999999999</v>
       </c>
-      <c r="K12" s="4">
+      <c r="M12" s="4">
         <v>0.38009999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N12" s="5">
+        <v>0.52969999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -858,26 +956,35 @@
       <c r="E13" s="4">
         <v>0.50270000000000004</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="4">
+      <c r="F13" s="7">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="4">
         <v>0.47810000000000002</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>0.4919</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="4">
+      <c r="J13" s="5">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="4">
         <v>0.4713</v>
       </c>
-      <c r="K13" s="4">
+      <c r="M13" s="4">
         <v>0.48280000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N13" s="5">
+        <v>0.63729999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -893,26 +1000,35 @@
       <c r="E14" s="4">
         <v>0.4163</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="4">
+      <c r="F14" s="7">
+        <v>0.55530000000000002</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="4">
         <v>0.41310000000000002</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>0.41360000000000002</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="4">
+      <c r="J14" s="8">
+        <v>0.53949999999999998</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="4">
         <v>0.39979999999999999</v>
       </c>
-      <c r="K14" s="4">
+      <c r="M14" s="4">
         <v>0.40010000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N14" s="8">
+        <v>0.53810000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,26 +1044,35 @@
       <c r="E15" s="4">
         <v>0.50270000000000004</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="4">
+      <c r="F15" s="7">
+        <v>0.63980000000000004</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="4">
         <v>0.46689999999999998</v>
       </c>
-      <c r="H15" s="4">
+      <c r="I15" s="4">
         <v>0.50470000000000004</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="4">
+      <c r="J15" s="8">
+        <v>0.64390000000000003</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="4">
         <v>0.45279999999999998</v>
       </c>
-      <c r="K15" s="4">
+      <c r="M15" s="4">
         <v>0.49969999999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N15" s="8">
+        <v>0.63719999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -963,26 +1088,35 @@
       <c r="E16" s="4">
         <v>0.52459999999999996</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="4">
+      <c r="F16" s="7">
+        <v>0.66369999999999996</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="4">
         <v>0.46779999999999999</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="4">
         <v>0.52159999999999995</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="4">
+      <c r="J16" s="8">
+        <v>0.66280000000000006</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="4">
         <v>0.43519999999999998</v>
       </c>
-      <c r="K16" s="4">
+      <c r="M16" s="4">
         <v>0.51519999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N16" s="8">
+        <v>0.62450000000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -998,26 +1132,26 @@
       <c r="E17" s="4">
         <v>0.4456</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="4">
+      <c r="G17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="4">
         <v>0.37340000000000001</v>
       </c>
-      <c r="H17" s="5">
+      <c r="I17" s="5">
         <v>0.44869999999999999</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="4">
+      <c r="K17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="4">
         <v>0.29060000000000002</v>
       </c>
-      <c r="K17" s="4">
+      <c r="M17" s="4">
         <v>0.34570000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>1</v>
       </c>
@@ -1033,26 +1167,32 @@
       <c r="E19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="J19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="M19" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
@@ -1068,26 +1208,26 @@
       <c r="E20" s="4">
         <v>0.27079999999999999</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="4">
+      <c r="G20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="4">
         <v>0.16830000000000001</v>
       </c>
-      <c r="H20" s="4">
+      <c r="I20" s="4">
         <v>0.27510000000000001</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="4">
+      <c r="K20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="4">
         <v>0.12870000000000001</v>
       </c>
-      <c r="K20" s="4">
+      <c r="M20" s="4">
         <v>0.2407</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -1103,26 +1243,26 @@
       <c r="E21" s="4">
         <v>0.2039</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="4">
+      <c r="G21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="4">
         <v>0.2026</v>
       </c>
-      <c r="H21" s="4">
+      <c r="I21" s="4">
         <v>0.214</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="4">
+      <c r="K21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="4">
         <v>0.18260000000000001</v>
       </c>
-      <c r="K21" s="4">
+      <c r="M21" s="4">
         <v>0.19650000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -1138,26 +1278,26 @@
       <c r="E22" s="4">
         <v>0.18260000000000001</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="4">
+      <c r="G22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="4">
         <v>0.1736</v>
       </c>
-      <c r="H22" s="4">
+      <c r="I22" s="4">
         <v>0.16139999999999999</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="4">
+      <c r="K22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="4">
         <v>0.114</v>
       </c>
-      <c r="K22" s="4">
+      <c r="M22" s="4">
         <v>8.9499999999999996E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -1173,26 +1313,26 @@
       <c r="E23" s="4">
         <v>0.18060000000000001</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="4">
+      <c r="G23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="4">
         <v>0.1875</v>
       </c>
-      <c r="H23" s="4">
+      <c r="I23" s="4">
         <v>0.188</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="4">
+      <c r="K23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="4">
         <v>0.19570000000000001</v>
       </c>
-      <c r="K23" s="4">
+      <c r="M23" s="4">
         <v>0.19620000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
@@ -1208,26 +1348,26 @@
       <c r="E24" s="4">
         <v>0.26540000000000002</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="4">
+      <c r="G24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="4">
         <v>0.219</v>
       </c>
-      <c r="H24" s="4">
+      <c r="I24" s="4">
         <v>0.25590000000000002</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24" s="4">
+      <c r="K24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="4">
         <v>0.19239999999999999</v>
       </c>
-      <c r="K24" s="4">
+      <c r="M24" s="4">
         <v>0.23669999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
@@ -1243,26 +1383,26 @@
       <c r="E25" s="4">
         <v>0.27350000000000002</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="4">
+      <c r="G25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="4">
         <v>0.21870000000000001</v>
       </c>
-      <c r="H25" s="5">
+      <c r="I25" s="5">
         <v>0.25929999999999997</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25" s="4">
+      <c r="K25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" s="4">
         <v>0.14879999999999999</v>
       </c>
-      <c r="K25" s="4">
+      <c r="M25" s="4">
         <v>0.23769999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
@@ -1278,22 +1418,22 @@
       <c r="E26" s="4">
         <v>0.1908</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="4">
+      <c r="G26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="4">
         <v>9.9299999999999999E-2</v>
       </c>
-      <c r="H26" s="4">
+      <c r="I26" s="4">
         <v>0.18340000000000001</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" s="4">
+      <c r="K26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="4">
         <v>0.1041</v>
       </c>
-      <c r="K26" s="4">
+      <c r="M26" s="4">
         <v>0.1651</v>
       </c>
     </row>
